--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2480.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2480.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.227016841770015</v>
+        <v>1.734397888183594</v>
       </c>
       <c r="B1">
-        <v>3.118450615276588</v>
+        <v>1.886769533157349</v>
       </c>
       <c r="C1">
-        <v>5.165041918430804</v>
+        <v>5.11505126953125</v>
       </c>
       <c r="D1">
-        <v>3.6815337531045</v>
+        <v>1.240546584129333</v>
       </c>
       <c r="E1">
-        <v>1.372417081757357</v>
+        <v>0.6432112455368042</v>
       </c>
     </row>
   </sheetData>
